--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_27.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/aat/src/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303EB6FC-0E41-F14C-A42F-4396C6198147}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D662F4-BFC9-E546-9577-63EF9B27D562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44260" yWindow="3900" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -328,9 +328,6 @@
 #Public</t>
   </si>
   <si>
-    <t>UserRole</t>
-  </si>
-  <si>
     <t>Case Events can have Create,Read,Update and Delete. MaxLength: 5</t>
   </si>
   <si>
@@ -904,6 +901,9 @@
   <si>
     <t>C - Create, R - Read, U - Update, D - Delete
 MustBe1OrManyOf: &lt;C,R,U,D&gt; MaxLength: 5</t>
+  </si>
+  <si>
+    <t>AccessProfile</t>
   </si>
 </sst>
 </file>
@@ -1832,10 +1832,10 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
@@ -1898,13 +1898,13 @@
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>40</v>
@@ -1936,13 +1936,13 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -1954,13 +1954,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="21">
         <v>2</v>
@@ -1972,13 +1972,13 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="21">
         <v>1</v>
@@ -1990,13 +1990,13 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="21">
         <v>2</v>
@@ -2055,7 +2055,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>1</v>
@@ -2073,13 +2073,13 @@
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="E2" s="68" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>133</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>40</v>
@@ -2111,13 +2111,13 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -2129,13 +2129,13 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="21">
         <v>1</v>
@@ -2211,13 +2211,13 @@
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>40</v>
@@ -2249,13 +2249,13 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -2267,13 +2267,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="21">
         <v>2</v>
@@ -2285,13 +2285,13 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="21">
         <v>1</v>
@@ -2303,13 +2303,13 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="21">
         <v>2</v>
@@ -2446,22 +2446,22 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -2473,22 +2473,22 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G5" s="28">
         <v>1</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="28">
         <v>2</v>
@@ -2500,22 +2500,22 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G6" s="28">
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="28">
         <v>3</v>
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G7" s="28">
         <v>1</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="28">
         <v>4</v>
@@ -2554,22 +2554,22 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G8" s="28">
         <v>1</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I8" s="28">
         <v>5</v>
@@ -2581,22 +2581,22 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G9" s="28">
         <v>2</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I9" s="28">
         <v>1</v>
@@ -2608,22 +2608,22 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G10" s="28">
         <v>2</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="28">
         <v>2</v>
@@ -2635,22 +2635,22 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G11" s="28">
         <v>2</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="28">
         <v>3</v>
@@ -2662,22 +2662,22 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G12" s="28">
         <v>2</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" s="28">
         <v>4</v>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G13" s="28">
         <v>2</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13" s="28">
         <v>5</v>
@@ -2716,22 +2716,22 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G14" s="28">
         <v>2</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I14" s="28">
         <v>6</v>
@@ -2743,22 +2743,22 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G15" s="28">
         <v>2</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="28">
         <v>7</v>
@@ -2770,22 +2770,22 @@
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G16" s="28">
         <v>3</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I16" s="28">
         <v>1</v>
@@ -2797,22 +2797,22 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G17" s="28">
         <v>3</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I17" s="28">
         <v>2</v>
@@ -2824,22 +2824,22 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G18" s="28">
         <v>3</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I18" s="28">
         <v>3</v>
@@ -2851,22 +2851,22 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G19" s="28">
         <v>3</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" s="28">
         <v>4</v>
@@ -2878,22 +2878,22 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="G20" s="28">
         <v>4</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I20" s="28">
         <v>1</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G21" s="28">
         <v>1</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I21" s="28">
         <v>1</v>
@@ -2932,22 +2932,22 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G22" s="28">
         <v>1</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="28">
         <v>2</v>
@@ -2959,22 +2959,22 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G23" s="28">
         <v>1</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I23" s="28">
         <v>3</v>
@@ -2986,22 +2986,22 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G24" s="28">
         <v>1</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="28">
         <v>4</v>
@@ -3013,22 +3013,22 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="G25" s="28">
         <v>1</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I25" s="28">
         <v>5</v>
@@ -3040,22 +3040,22 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G26" s="28">
         <v>2</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I26" s="28">
         <v>1</v>
@@ -3067,22 +3067,22 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G27" s="28">
         <v>2</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I27" s="28">
         <v>2</v>
@@ -3094,22 +3094,22 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G28" s="28">
         <v>2</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I28" s="28">
         <v>3</v>
@@ -3121,22 +3121,22 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G29" s="28">
         <v>2</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I29" s="28">
         <v>4</v>
@@ -3148,22 +3148,22 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G30" s="28">
         <v>2</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I30" s="28">
         <v>5</v>
@@ -3175,22 +3175,22 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G31" s="28">
         <v>2</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I31" s="28">
         <v>6</v>
@@ -3202,22 +3202,22 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="G32" s="28">
         <v>2</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I32" s="28">
         <v>7</v>
@@ -3229,22 +3229,22 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G33" s="28">
         <v>3</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I33" s="28">
         <v>1</v>
@@ -3256,22 +3256,22 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G34" s="28">
         <v>3</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I34" s="28">
         <v>2</v>
@@ -3283,22 +3283,22 @@
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G35" s="28">
         <v>3</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I35" s="28">
         <v>3</v>
@@ -3310,22 +3310,22 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E36" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="G36" s="28">
         <v>4</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I36" s="28">
         <v>1</v>
@@ -3411,16 +3411,16 @@
         <v>42736</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3442,7 +3442,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3478,7 +3478,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3492,7 +3492,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>59</v>
@@ -3504,13 +3504,13 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -3519,13 +3519,13 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3544,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3560,7 +3560,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>62</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3601,10 +3601,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>59</v>
@@ -3616,16 +3616,16 @@
       </c>
       <c r="B4" s="53"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3634,16 +3634,16 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3652,16 +3652,16 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3670,16 +3670,16 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3688,16 +3688,16 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3706,16 +3706,16 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3734,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3775,7 +3775,7 @@
         <v>62</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>59</v>
@@ -3803,16 +3803,16 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3820,16 +3820,16 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3837,16 +3837,16 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3854,16 +3854,16 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3871,16 +3871,16 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3888,16 +3888,16 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3905,16 +3905,16 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3922,16 +3922,16 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3939,16 +3939,16 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3956,16 +3956,16 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3973,16 +3973,16 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3990,16 +3990,16 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4017,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4058,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -4075,7 +4075,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>59</v>
@@ -4086,16 +4086,16 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4103,16 +4103,16 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4120,16 +4120,16 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4137,16 +4137,16 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4154,16 +4154,16 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4171,16 +4171,16 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4188,16 +4188,16 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4205,16 +4205,16 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4222,16 +4222,16 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4239,16 +4239,16 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,16 +4256,16 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4273,16 +4273,16 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4291,16 +4291,16 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4308,16 +4308,16 @@
         <v>42736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4326,16 +4326,16 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4343,16 +4343,16 @@
         <v>42736</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4360,16 +4360,16 @@
         <v>42736</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4377,16 +4377,16 @@
         <v>42736</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4394,16 +4394,16 @@
         <v>42736</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4411,16 +4411,16 @@
         <v>42736</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4428,16 +4428,16 @@
         <v>42736</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4445,16 +4445,16 @@
         <v>42736</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4462,16 +4462,16 @@
         <v>42736</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4479,16 +4479,16 @@
         <v>42736</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4496,16 +4496,16 @@
         <v>42736</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4513,16 +4513,16 @@
         <v>42736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4530,16 +4530,16 @@
         <v>42736</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4547,16 +4547,16 @@
         <v>42736</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4564,16 +4564,16 @@
         <v>42736</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4581,16 +4581,16 @@
         <v>42736</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4598,16 +4598,16 @@
         <v>42736</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4615,16 +4615,16 @@
         <v>42736</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4632,16 +4632,16 @@
         <v>42736</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4659,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4677,7 +4677,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>1</v>
@@ -4696,19 +4696,19 @@
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="E2" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>279</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4728,7 +4728,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="G3" s="86" t="s">
         <v>59</v>
@@ -4739,19 +4739,19 @@
         <v>42736</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -4759,19 +4759,19 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -4779,19 +4779,19 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4843,16 +4843,16 @@
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>109</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>71</v>
@@ -4890,7 +4890,7 @@
         <v>88</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4899,19 +4899,19 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>235</v>
-      </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4920,19 +4920,19 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>253</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5001,13 +5001,13 @@
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>14</v>
@@ -5062,7 +5062,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>63</v>
@@ -5077,16 +5077,16 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="F4" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>25</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5106,16 +5106,16 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>28</v>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5135,16 +5135,16 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>141</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>30</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5164,16 +5164,16 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>145</v>
-      </c>
       <c r="F7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>86</v>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5193,16 +5193,16 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>147</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>29</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5222,16 +5222,16 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="F9" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>152</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>85</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5251,16 +5251,16 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>154</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>27</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5280,19 +5280,19 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="G11" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5309,19 +5309,19 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>157</v>
-      </c>
       <c r="F12" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28" t="s">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5338,29 +5338,29 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="F13" s="42" t="s">
         <v>161</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5369,29 +5369,29 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="F14" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="G14" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>172</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>173</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5400,16 +5400,16 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F15" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>242</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>80</v>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5431,19 +5431,19 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="F16" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="G16" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>228</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="28" t="s">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5460,19 +5460,19 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="F17" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="G17" s="42" t="s">
         <v>245</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="28" t="s">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5489,19 +5489,19 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="F18" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="G18" s="42" t="s">
         <v>256</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>257</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="28" t="s">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5518,29 +5518,29 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="F19" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="G19" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="H19" s="42" t="s">
         <v>261</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>262</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5549,19 +5549,19 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="F20" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="G20" s="75" t="s">
         <v>271</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>272</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="28" t="s">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5578,16 +5578,16 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>136</v>
-      </c>
       <c r="F21" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>25</v>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5607,16 +5607,16 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="F22" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>28</v>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5636,16 +5636,16 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="F23" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>141</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>30</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5665,16 +5665,16 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>145</v>
-      </c>
       <c r="F24" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>86</v>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5694,16 +5694,16 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>147</v>
-      </c>
       <c r="F25" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="42" t="s">
         <v>29</v>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5723,16 +5723,16 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="F26" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>152</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>85</v>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5752,16 +5752,16 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>154</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>27</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5781,19 +5781,19 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="F28" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="G28" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>250</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5810,19 +5810,19 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>157</v>
-      </c>
       <c r="F29" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5839,29 +5839,29 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="F30" s="42" t="s">
         <v>161</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="G30" s="42" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5870,29 +5870,29 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="F31" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="G31" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="42" t="s">
         <v>172</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>173</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5901,16 +5901,16 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="F32" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>242</v>
       </c>
       <c r="G32" s="42" t="s">
         <v>80</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5932,19 +5932,19 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="F33" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="G33" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>228</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="28" t="s">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5961,19 +5961,19 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D34" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="F34" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="G34" s="42" t="s">
         <v>245</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>246</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="28" t="s">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5990,29 +5990,29 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="F35" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="G35" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="H35" s="42" t="s">
         <v>261</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>262</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6021,19 +6021,19 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="F36" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="G36" s="75" t="s">
         <v>271</v>
-      </c>
-      <c r="G36" s="75" t="s">
-        <v>272</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="28" t="s">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6098,13 +6098,13 @@
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6130,13 +6130,13 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6145,13 +6145,13 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6160,13 +6160,13 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6175,13 +6175,13 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="E7" s="42" t="s">
         <v>174</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6190,13 +6190,13 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6205,13 +6205,13 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6220,13 +6220,13 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6235,13 +6235,13 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6250,13 +6250,13 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>263</v>
-      </c>
       <c r="E12" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6265,13 +6265,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6280,13 +6280,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6357,16 +6357,16 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>17</v>
@@ -6375,7 +6375,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>5</v>
@@ -6415,7 +6415,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>81</v>
@@ -6424,7 +6424,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M3" s="35" t="s">
         <v>63</v>
@@ -6439,16 +6439,16 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -6458,7 +6458,7 @@
         <v>26</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="8"/>
@@ -6469,16 +6469,16 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -6490,7 +6490,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="8"/>
@@ -6501,16 +6501,16 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -6520,7 +6520,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6529,28 +6529,28 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6559,16 +6559,16 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="F8" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>224</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -6578,7 +6578,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6640,10 +6640,10 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -6677,13 +6677,13 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -6696,13 +6696,13 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28">
@@ -6715,13 +6715,13 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28">
@@ -6734,13 +6734,13 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
@@ -6753,13 +6753,13 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
@@ -6772,13 +6772,13 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28">
@@ -6859,13 +6859,13 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>39</v>
@@ -6901,7 +6901,7 @@
         <v>90</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6951,10 +6951,10 @@
         <v>70</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6963,13 +6963,13 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>190</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>191</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -6977,10 +6977,10 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="24" t="s">
         <v>73</v>
@@ -6992,23 +6992,23 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28">
         <v>2</v>
       </c>
       <c r="H5" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>185</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>186</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -7017,7 +7017,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="24" t="s">
         <v>73</v>
@@ -7029,23 +7029,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28">
         <v>3</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -7054,7 +7054,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>73</v>
@@ -7066,23 +7066,23 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>196</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>197</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
         <v>4</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -7091,7 +7091,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="24" t="s">
         <v>73</v>
@@ -7103,23 +7103,23 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>198</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>199</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
         <v>5</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -7128,7 +7128,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="24" t="s">
         <v>73</v>
@@ -7140,23 +7140,23 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28">
         <v>6</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -7165,7 +7165,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="24" t="s">
         <v>26</v>
@@ -7177,13 +7177,13 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>190</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>191</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -7200,7 +7200,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="24" t="s">
         <v>73</v>
@@ -7212,23 +7212,23 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28">
         <v>2</v>
       </c>
       <c r="H11" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="42" t="s">
         <v>185</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>186</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -7237,7 +7237,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="24" t="s">
         <v>73</v>
@@ -7249,23 +7249,23 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28">
         <v>3</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
@@ -7274,7 +7274,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
       <c r="P12" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="24" t="s">
         <v>73</v>
@@ -7286,23 +7286,23 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>196</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>197</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28">
         <v>4</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
@@ -7311,7 +7311,7 @@
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="24" t="s">
         <v>73</v>
@@ -7323,23 +7323,23 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>198</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>199</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28">
         <v>5</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
@@ -7348,7 +7348,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="24" t="s">
         <v>73</v>
@@ -7360,23 +7360,23 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28">
         <v>6</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -7385,7 +7385,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="24" t="s">
         <v>26</v>
@@ -7441,7 +7441,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7464,43 +7464,43 @@
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>114</v>
-      </c>
       <c r="F2" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="46" t="s">
-        <v>100</v>
-      </c>
       <c r="M2" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -7520,34 +7520,34 @@
         <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="45" t="s">
+      <c r="N3" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="48" t="s">
-        <v>120</v>
-      </c>
       <c r="O3" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7556,13 +7556,13 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>26</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -7593,13 +7593,13 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="28">
         <v>2</v>
@@ -7609,13 +7609,13 @@
         <v>26</v>
       </c>
       <c r="I5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="K5" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -7630,13 +7630,13 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="28">
         <v>3</v>
@@ -7646,13 +7646,13 @@
         <v>26</v>
       </c>
       <c r="I6" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L6" s="14">
         <v>1</v>
@@ -7667,13 +7667,13 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="28">
         <v>4</v>
@@ -7683,13 +7683,13 @@
         <v>26</v>
       </c>
       <c r="I7" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="K7" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L7" s="14">
         <v>1</v>
@@ -7704,13 +7704,13 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="28">
         <v>5</v>
@@ -7720,13 +7720,13 @@
         <v>26</v>
       </c>
       <c r="I8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L8" s="14">
         <v>1</v>
@@ -7741,13 +7741,13 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -7757,13 +7757,13 @@
         <v>26</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L9" s="14">
         <v>2</v>
@@ -7778,13 +7778,13 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="28">
         <v>2</v>
@@ -7794,13 +7794,13 @@
         <v>26</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L10" s="14">
         <v>2</v>
@@ -7815,13 +7815,13 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="28">
         <v>3</v>
@@ -7831,13 +7831,13 @@
         <v>26</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L11" s="14">
         <v>2</v>
@@ -7852,13 +7852,13 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="28">
         <v>4</v>
@@ -7868,13 +7868,13 @@
         <v>26</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L12" s="14">
         <v>2</v>
@@ -7889,13 +7889,13 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="28">
         <v>5</v>
@@ -7905,13 +7905,13 @@
         <v>26</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J13" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L13" s="14">
         <v>2</v>
@@ -7926,13 +7926,13 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F14" s="28">
         <v>6</v>
@@ -7942,13 +7942,13 @@
         <v>26</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J14" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L14" s="14">
         <v>2</v>
@@ -7963,13 +7963,13 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="28">
         <v>7</v>
@@ -7979,13 +7979,13 @@
         <v>26</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J15" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L15" s="14">
         <v>2</v>
@@ -8000,13 +8000,13 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" s="28">
         <v>1</v>
@@ -8016,13 +8016,13 @@
         <v>26</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J16" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L16" s="14">
         <v>3</v>
@@ -8037,13 +8037,13 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F17" s="28">
         <v>2</v>
@@ -8053,13 +8053,13 @@
         <v>26</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J17" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L17" s="14">
         <v>3</v>
@@ -8074,13 +8074,13 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" s="28">
         <v>3</v>
@@ -8090,13 +8090,13 @@
         <v>26</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J18" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L18" s="14">
         <v>3</v>
@@ -8111,13 +8111,13 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" s="28">
         <v>4</v>
@@ -8127,13 +8127,13 @@
         <v>26</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J19" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L19" s="14">
         <v>3</v>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="28">
         <v>1</v>
@@ -8164,13 +8164,13 @@
         <v>26</v>
       </c>
       <c r="I20" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="K20" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L20" s="14">
         <v>1</v>
@@ -8185,13 +8185,13 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" s="28">
         <v>2</v>
@@ -8201,13 +8201,13 @@
         <v>26</v>
       </c>
       <c r="I21" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="K21" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L21" s="14">
         <v>1</v>
@@ -8222,13 +8222,13 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="28">
         <v>3</v>
@@ -8238,13 +8238,13 @@
         <v>26</v>
       </c>
       <c r="I22" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="K22" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L22" s="14">
         <v>1</v>
@@ -8259,13 +8259,13 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="28">
         <v>4</v>
@@ -8275,13 +8275,13 @@
         <v>26</v>
       </c>
       <c r="I23" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="K23" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L23" s="14">
         <v>1</v>
@@ -8296,13 +8296,13 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="28">
         <v>5</v>
@@ -8312,13 +8312,13 @@
         <v>26</v>
       </c>
       <c r="I24" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="K24" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L24" s="14">
         <v>1</v>
@@ -8333,13 +8333,13 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="28">
         <v>1</v>
@@ -8349,13 +8349,13 @@
         <v>26</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J25" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L25" s="14">
         <v>2</v>
@@ -8370,13 +8370,13 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="28">
         <v>2</v>
@@ -8386,13 +8386,13 @@
         <v>26</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J26" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L26" s="14">
         <v>2</v>
@@ -8407,13 +8407,13 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="28">
         <v>3</v>
@@ -8423,13 +8423,13 @@
         <v>26</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J27" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L27" s="14">
         <v>2</v>
@@ -8444,13 +8444,13 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="28">
         <v>4</v>
@@ -8460,13 +8460,13 @@
         <v>26</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J28" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L28" s="14">
         <v>2</v>
@@ -8481,13 +8481,13 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="28">
         <v>5</v>
@@ -8497,13 +8497,13 @@
         <v>26</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J29" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L29" s="14">
         <v>2</v>
@@ -8518,13 +8518,13 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="28">
         <v>6</v>
@@ -8534,13 +8534,13 @@
         <v>26</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J30" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L30" s="14">
         <v>2</v>
@@ -8555,13 +8555,13 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="28">
         <v>1</v>
@@ -8571,13 +8571,13 @@
         <v>26</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J31" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L31" s="14">
         <v>3</v>
@@ -8592,13 +8592,13 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="28">
         <v>2</v>
@@ -8608,13 +8608,13 @@
         <v>26</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J32" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L32" s="14">
         <v>3</v>
@@ -8629,13 +8629,13 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F33" s="28">
         <v>3</v>
@@ -8645,13 +8645,13 @@
         <v>26</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J33" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L33" s="14">
         <v>3</v>
@@ -8666,13 +8666,13 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F34" s="28">
         <v>4</v>
@@ -8682,13 +8682,13 @@
         <v>26</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J34" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L34" s="14">
         <v>3</v>
@@ -8703,13 +8703,13 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="28">
         <v>1</v>
@@ -8719,13 +8719,13 @@
         <v>73</v>
       </c>
       <c r="I35" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="K35" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L35" s="14">
         <v>1</v>
@@ -8740,13 +8740,13 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="28">
         <v>2</v>
@@ -8756,13 +8756,13 @@
         <v>73</v>
       </c>
       <c r="I36" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L36" s="14">
         <v>1</v>
@@ -8777,13 +8777,13 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37" s="28">
         <v>3</v>
@@ -8793,13 +8793,13 @@
         <v>73</v>
       </c>
       <c r="I37" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="K37" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L37" s="14">
         <v>1</v>
@@ -8814,13 +8814,13 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="28">
         <v>4</v>
@@ -8830,13 +8830,13 @@
         <v>73</v>
       </c>
       <c r="I38" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="K38" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L38" s="14">
         <v>1</v>
@@ -8851,13 +8851,13 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F39" s="28">
         <v>5</v>
@@ -8867,13 +8867,13 @@
         <v>73</v>
       </c>
       <c r="I39" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="K39" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L39" s="14">
         <v>1</v>
@@ -8888,13 +8888,13 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
@@ -8904,13 +8904,13 @@
         <v>73</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J40" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K40" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L40" s="14">
         <v>2</v>
@@ -8925,13 +8925,13 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="28">
         <v>2</v>
@@ -8941,13 +8941,13 @@
         <v>73</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J41" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L41" s="14">
         <v>2</v>
@@ -8962,13 +8962,13 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F42" s="28">
         <v>3</v>
@@ -8978,13 +8978,13 @@
         <v>73</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J42" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L42" s="14">
         <v>2</v>
@@ -8999,13 +8999,13 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43" s="28">
         <v>4</v>
@@ -9015,13 +9015,13 @@
         <v>73</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J43" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K43" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L43" s="14">
         <v>2</v>
@@ -9036,13 +9036,13 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" s="28">
         <v>5</v>
@@ -9052,13 +9052,13 @@
         <v>73</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J44" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L44" s="14">
         <v>2</v>
@@ -9073,13 +9073,13 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" s="28">
         <v>6</v>
@@ -9089,13 +9089,13 @@
         <v>73</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J45" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L45" s="14">
         <v>2</v>
@@ -9110,13 +9110,13 @@
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="28">
         <v>1</v>
@@ -9126,13 +9126,13 @@
         <v>73</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J46" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K46" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L46" s="14">
         <v>3</v>
@@ -9147,13 +9147,13 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="28">
         <v>2</v>
@@ -9163,13 +9163,13 @@
         <v>73</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J47" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K47" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L47" s="14">
         <v>3</v>
@@ -9184,13 +9184,13 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F48" s="28">
         <v>3</v>
@@ -9200,13 +9200,13 @@
         <v>73</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J48" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K48" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K48" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L48" s="14">
         <v>3</v>
@@ -9221,13 +9221,13 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49" s="28">
         <v>1</v>
@@ -9237,13 +9237,13 @@
         <v>26</v>
       </c>
       <c r="I49" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="K49" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L49" s="14">
         <v>1</v>
@@ -9258,13 +9258,13 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" s="28">
         <v>2</v>
@@ -9274,13 +9274,13 @@
         <v>26</v>
       </c>
       <c r="I50" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J50" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="K50" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L50" s="14">
         <v>1</v>
@@ -9295,13 +9295,13 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51" s="28">
         <v>3</v>
@@ -9311,13 +9311,13 @@
         <v>26</v>
       </c>
       <c r="I51" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J51" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="K51" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L51" s="14">
         <v>1</v>
@@ -9332,13 +9332,13 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F52" s="28">
         <v>4</v>
@@ -9348,13 +9348,13 @@
         <v>26</v>
       </c>
       <c r="I52" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="K52" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L52" s="14">
         <v>1</v>
@@ -9369,13 +9369,13 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="28">
         <v>5</v>
@@ -9385,13 +9385,13 @@
         <v>26</v>
       </c>
       <c r="I53" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J53" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="K53" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L53" s="14">
         <v>1</v>
@@ -9406,13 +9406,13 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F54" s="28">
         <v>1</v>
@@ -9422,13 +9422,13 @@
         <v>26</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J54" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K54" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L54" s="14">
         <v>2</v>
@@ -9443,13 +9443,13 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F55" s="28">
         <v>2</v>
@@ -9459,13 +9459,13 @@
         <v>26</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J55" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L55" s="14">
         <v>2</v>
@@ -9480,13 +9480,13 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F56" s="28">
         <v>3</v>
@@ -9496,13 +9496,13 @@
         <v>26</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J56" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K56" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L56" s="14">
         <v>2</v>
@@ -9517,13 +9517,13 @@
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F57" s="28">
         <v>4</v>
@@ -9533,13 +9533,13 @@
         <v>26</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J57" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L57" s="14">
         <v>2</v>
@@ -9554,13 +9554,13 @@
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" s="28">
         <v>5</v>
@@ -9570,13 +9570,13 @@
         <v>26</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J58" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K58" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K58" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L58" s="14">
         <v>2</v>
@@ -9591,13 +9591,13 @@
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F59" s="28">
         <v>6</v>
@@ -9607,13 +9607,13 @@
         <v>26</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J59" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K59" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K59" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L59" s="14">
         <v>2</v>
@@ -9628,13 +9628,13 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" s="28">
         <v>7</v>
@@ -9644,13 +9644,13 @@
         <v>26</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J60" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K60" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L60" s="14">
         <v>2</v>
@@ -9665,13 +9665,13 @@
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F61" s="28">
         <v>1</v>
@@ -9681,13 +9681,13 @@
         <v>26</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J61" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K61" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K61" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L61" s="14">
         <v>3</v>
@@ -9702,13 +9702,13 @@
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" s="28">
         <v>2</v>
@@ -9718,13 +9718,13 @@
         <v>26</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J62" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K62" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K62" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L62" s="14">
         <v>3</v>
@@ -9739,13 +9739,13 @@
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" s="28">
         <v>3</v>
@@ -9755,13 +9755,13 @@
         <v>26</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J63" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K63" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K63" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L63" s="14">
         <v>3</v>
@@ -9776,13 +9776,13 @@
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F64" s="28">
         <v>1</v>
@@ -9792,13 +9792,13 @@
         <v>26</v>
       </c>
       <c r="I64" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="K64" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L64" s="14">
         <v>1</v>
@@ -9813,13 +9813,13 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" s="28">
         <v>2</v>
@@ -9829,13 +9829,13 @@
         <v>26</v>
       </c>
       <c r="I65" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J65" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="K65" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K65" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L65" s="14">
         <v>1</v>
@@ -9850,13 +9850,13 @@
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F66" s="28">
         <v>3</v>
@@ -9866,13 +9866,13 @@
         <v>26</v>
       </c>
       <c r="I66" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J66" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="K66" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L66" s="14">
         <v>1</v>
@@ -9887,13 +9887,13 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F67" s="28">
         <v>4</v>
@@ -9903,13 +9903,13 @@
         <v>26</v>
       </c>
       <c r="I67" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J67" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="K67" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K67" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L67" s="14">
         <v>1</v>
@@ -9924,13 +9924,13 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" s="28">
         <v>5</v>
@@ -9940,13 +9940,13 @@
         <v>26</v>
       </c>
       <c r="I68" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J68" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="K68" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L68" s="14">
         <v>1</v>
@@ -9961,13 +9961,13 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" s="28">
         <v>1</v>
@@ -9977,13 +9977,13 @@
         <v>26</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J69" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K69" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K69" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L69" s="14">
         <v>2</v>
@@ -9998,13 +9998,13 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F70" s="28">
         <v>2</v>
@@ -10014,13 +10014,13 @@
         <v>26</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J70" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K70" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K70" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L70" s="14">
         <v>2</v>
@@ -10035,13 +10035,13 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F71" s="28">
         <v>3</v>
@@ -10051,13 +10051,13 @@
         <v>26</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J71" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K71" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K71" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L71" s="14">
         <v>2</v>
@@ -10072,13 +10072,13 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F72" s="28">
         <v>4</v>
@@ -10088,13 +10088,13 @@
         <v>26</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J72" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K72" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K72" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L72" s="14">
         <v>2</v>
@@ -10109,13 +10109,13 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F73" s="28">
         <v>5</v>
@@ -10125,13 +10125,13 @@
         <v>26</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J73" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K73" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L73" s="14">
         <v>2</v>
@@ -10146,13 +10146,13 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F74" s="28">
         <v>6</v>
@@ -10162,13 +10162,13 @@
         <v>26</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J74" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K74" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L74" s="14">
         <v>2</v>
@@ -10183,13 +10183,13 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F75" s="28">
         <v>1</v>
@@ -10199,13 +10199,13 @@
         <v>26</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J75" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K75" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K75" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L75" s="14">
         <v>3</v>
@@ -10220,13 +10220,13 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F76" s="28">
         <v>2</v>
@@ -10236,13 +10236,13 @@
         <v>26</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J76" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K76" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K76" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L76" s="14">
         <v>3</v>
@@ -10257,13 +10257,13 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F77" s="28">
         <v>3</v>
@@ -10273,13 +10273,13 @@
         <v>26</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J77" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K77" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K77" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L77" s="14">
         <v>3</v>
@@ -10294,13 +10294,13 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F78" s="28">
         <v>1</v>
@@ -10310,13 +10310,13 @@
         <v>73</v>
       </c>
       <c r="I78" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J78" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J78" s="24" t="s">
+      <c r="K78" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K78" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L78" s="14">
         <v>1</v>
@@ -10331,13 +10331,13 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" s="28">
         <v>2</v>
@@ -10347,13 +10347,13 @@
         <v>73</v>
       </c>
       <c r="I79" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J79" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J79" s="24" t="s">
+      <c r="K79" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K79" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L79" s="14">
         <v>1</v>
@@ -10368,13 +10368,13 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F80" s="28">
         <v>3</v>
@@ -10384,13 +10384,13 @@
         <v>73</v>
       </c>
       <c r="I80" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J80" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="K80" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K80" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L80" s="14">
         <v>1</v>
@@ -10405,13 +10405,13 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F81" s="28">
         <v>4</v>
@@ -10421,13 +10421,13 @@
         <v>73</v>
       </c>
       <c r="I81" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J81" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="K81" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K81" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L81" s="14">
         <v>1</v>
@@ -10442,13 +10442,13 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F82" s="28">
         <v>5</v>
@@ -10458,13 +10458,13 @@
         <v>73</v>
       </c>
       <c r="I82" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J82" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="K82" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="K82" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="L82" s="14">
         <v>1</v>
@@ -10479,13 +10479,13 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F83" s="28">
         <v>1</v>
@@ -10495,13 +10495,13 @@
         <v>73</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J83" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K83" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K83" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L83" s="14">
         <v>2</v>
@@ -10516,13 +10516,13 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F84" s="28">
         <v>2</v>
@@ -10532,13 +10532,13 @@
         <v>73</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J84" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K84" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K84" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L84" s="14">
         <v>2</v>
@@ -10553,13 +10553,13 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F85" s="28">
         <v>3</v>
@@ -10569,13 +10569,13 @@
         <v>73</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J85" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K85" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K85" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L85" s="14">
         <v>2</v>
@@ -10590,13 +10590,13 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F86" s="28">
         <v>4</v>
@@ -10606,13 +10606,13 @@
         <v>73</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J86" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K86" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K86" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L86" s="14">
         <v>2</v>
@@ -10627,13 +10627,13 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F87" s="28">
         <v>5</v>
@@ -10643,13 +10643,13 @@
         <v>73</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J87" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K87" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K87" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L87" s="14">
         <v>2</v>
@@ -10664,13 +10664,13 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F88" s="28">
         <v>6</v>
@@ -10680,13 +10680,13 @@
         <v>73</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J88" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K88" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>205</v>
       </c>
       <c r="L88" s="14">
         <v>2</v>
@@ -10701,13 +10701,13 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F89" s="28">
         <v>1</v>
@@ -10717,13 +10717,13 @@
         <v>73</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J89" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K89" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K89" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L89" s="14">
         <v>3</v>
@@ -10738,13 +10738,13 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F90" s="28">
         <v>2</v>
@@ -10754,13 +10754,13 @@
         <v>73</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J90" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K90" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K90" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L90" s="14">
         <v>3</v>
@@ -10775,13 +10775,13 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F91" s="28">
         <v>3</v>
@@ -10791,13 +10791,13 @@
         <v>73</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J91" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K91" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="K91" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="L91" s="14">
         <v>3</v>
@@ -10863,13 +10863,13 @@
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>40</v>
@@ -10901,13 +10901,13 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -10919,13 +10919,13 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="21">
         <v>1</v>
